--- a/cache/51b11269-2ca8-4b2a-9163-f21758420e78/Arrang_Value_min_to_max.xlsx
+++ b/cache/51b11269-2ca8-4b2a-9163-f21758420e78/Arrang_Value_min_to_max.xlsx
@@ -312,15 +312,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="A1:D19"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -334,7 +334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>44893</v>
       </c>
@@ -348,7 +348,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>44932</v>
       </c>
@@ -362,7 +362,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>44902</v>
       </c>
@@ -376,7 +376,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>44943</v>
       </c>
@@ -390,7 +390,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>44946</v>
       </c>
@@ -404,7 +404,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>44884</v>
       </c>
@@ -418,7 +418,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>44948</v>
       </c>
@@ -432,7 +432,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>44961</v>
       </c>
@@ -446,7 +446,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>44917</v>
       </c>
@@ -460,7 +460,7 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>44896</v>
       </c>
@@ -474,7 +474,7 @@
         <v>4529</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>44902</v>
       </c>
@@ -488,7 +488,7 @@
         <v>6039</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>44960</v>
       </c>
@@ -502,7 +502,7 @@
         <v>6285</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>44896</v>
       </c>
@@ -516,7 +516,7 @@
         <v>6311</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>44911</v>
       </c>
@@ -530,7 +530,7 @@
         <v>7209</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>44902</v>
       </c>
@@ -544,7 +544,7 @@
         <v>7906</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>44890</v>
       </c>
@@ -558,7 +558,7 @@
         <v>8103</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>44904</v>
       </c>
@@ -572,7 +572,7 @@
         <v>8763</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>44930</v>
       </c>
@@ -586,6 +586,30 @@
         <v>9444</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
